--- a/CETC/ExcelFile/historyQueryDevices.xlsx
+++ b/CETC/ExcelFile/historyQueryDevices.xlsx
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>showSubItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tileBarItem3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,23 +59,27 @@
     <t>5车</t>
   </si>
   <si>
-    <t>1,2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tagSideBarItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0100000000010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010000000100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001000001000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,8 +123,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -429,7 +430,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -443,7 +444,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -455,7 +456,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -463,16 +464,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -480,16 +481,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -497,16 +498,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -514,16 +515,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
-        <v>15</v>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/CETC/ExcelFile/historyQueryDevices.xlsx
+++ b/CETC/ExcelFile/historyQueryDevices.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>nameSideBarItem</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,23 +63,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>equip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0100000000010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0010000000100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0001000001000</t>
+    <t>烟库乱烟检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟支空头检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模盒缺支检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一号轮缺支检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二号轮铝箔纸检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三号轮铝箔纸检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五号轮内框纸检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小包外观检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟包外观复检</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小包拉线检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散包视觉检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散包光电检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条盒拉线检测</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -125,7 +157,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -427,22 +459,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.625" customWidth="1"/>
-    <col min="2" max="2" width="27.625" customWidth="1"/>
-    <col min="3" max="3" width="26.375" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="13.625" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="15.625" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="12.875" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="12.75" customWidth="1"/>
+    <col min="17" max="17" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -458,8 +502,44 @@
       <c r="E1" t="s">
         <v>12</v>
       </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2</v>
       </c>
@@ -472,11 +552,47 @@
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -489,11 +605,47 @@
       <c r="D3">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>4</v>
       </c>
@@ -506,11 +658,47 @@
       <c r="D4">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
@@ -523,8 +711,44 @@
       <c r="D5">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/CETC/ExcelFile/historyQueryDevices.xlsx
+++ b/CETC/ExcelFile/historyQueryDevices.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>nameSideBarItem</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,76 +42,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>3车</t>
+  </si>
+  <si>
+    <t>4车</t>
+  </si>
+  <si>
+    <t>5车</t>
+  </si>
+  <si>
+    <t>tagSideBarItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟库乱烟检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟支空头检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模盒缺支检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一号轮缺支检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二号轮铝箔纸检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三号轮铝箔纸检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五号轮内框纸检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小包外观检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟包外观复检</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小包拉线检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散包视觉检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散包光电检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条盒拉线检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tileBarItem2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>tileBarItem6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3车</t>
-  </si>
-  <si>
-    <t>4车</t>
-  </si>
-  <si>
-    <t>5车</t>
-  </si>
-  <si>
-    <t>tagSideBarItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟库乱烟检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟支空头检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模盒缺支检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一号轮缺支检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二号轮铝箔纸检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三号轮铝箔纸检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五号轮内框纸检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小包外观检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟包外观复检</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小包拉线检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>散包视觉检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>散包光电检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条盒拉线检测</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -488,7 +495,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -500,43 +507,43 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>22</v>
-      </c>
-      <c r="P1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -544,10 +551,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -562,34 +569,34 @@
         <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
@@ -597,31 +604,31 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -650,13 +657,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -668,22 +675,22 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -703,51 +710,104 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>0</v>
       </c>
     </row>

--- a/CETC/ExcelFile/historyQueryDevices.xlsx
+++ b/CETC/ExcelFile/historyQueryDevices.xlsx
@@ -71,7 +71,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二号轮铝箔纸检测</t>
+    <t>五号轮内框纸检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小包外观检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟包外观复检</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小包拉线检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散包视觉检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散包光电检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条盒拉线检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tileBarItem2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tileBarItem6</t>
+  </si>
+  <si>
+    <t>2车</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -79,46 +118,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>五号轮内框纸检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小包外观检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟包外观复检</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小包拉线检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>散包视觉检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>散包光电检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条盒拉线检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tileBarItem2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tileBarItem6</t>
-  </si>
-  <si>
-    <t>2车</t>
+    <t>四号轮铝箔纸检测</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,7 +469,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -519,31 +519,31 @@
         <v>13</v>
       </c>
       <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>20</v>
-      </c>
-      <c r="P1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -551,10 +551,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -763,10 +763,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>0</v>

--- a/CETC/ExcelFile/historyQueryDevices.xlsx
+++ b/CETC/ExcelFile/historyQueryDevices.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -38,87 +36,88 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>3车</t>
+  </si>
+  <si>
+    <t>4车</t>
+  </si>
+  <si>
+    <t>5车</t>
+  </si>
+  <si>
+    <t>tagSideBarItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟库乱烟检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟支空头检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模盒缺支检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一号轮缺支检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五号轮内框纸检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小包外观检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟包外观复检</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小包拉线检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散包视觉检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散包光电检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条盒拉线检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tileBarItem2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三号轮铝箔纸检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四号轮铝箔纸检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tileBarItem1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>tileBarItem5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3车</t>
-  </si>
-  <si>
-    <t>4车</t>
-  </si>
-  <si>
-    <t>5车</t>
-  </si>
-  <si>
-    <t>tagSideBarItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟库乱烟检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟支空头检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模盒缺支检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一号轮缺支检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五号轮内框纸检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小包外观检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟包外观复检</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小包拉线检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>散包视觉检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>散包光电检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条盒拉线检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tileBarItem2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tileBarItem6</t>
-  </si>
-  <si>
-    <t>2车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三号轮铝箔纸检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四号轮铝箔纸检测</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -495,7 +494,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -507,54 +506,54 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>19</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -601,13 +600,13 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -654,13 +653,13 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -707,13 +706,13 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -760,13 +759,13 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -816,30 +815,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>